--- a/crm接口文档/客户来访管理/客户来访条件查询.xlsx
+++ b/crm接口文档/客户来访管理/客户来访条件查询.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>URL</t>
   </si>
@@ -134,13 +134,13 @@
     <t>客户来访地址</t>
   </si>
   <si>
-    <t>cusEvaluationId</t>
+    <t>cusEvaluation</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>客户评价id</t>
+    <t>客户评价</t>
   </si>
   <si>
     <t> 输出参数来源</t>
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>客户来访内容</t>
-  </si>
-  <si>
-    <t>cusEvaluation</t>
-  </si>
-  <si>
-    <t>客户评价</t>
   </si>
 </sst>
 </file>
@@ -208,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -279,6 +273,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -293,6 +294,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,8 +355,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,55 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,50 +415,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -455,31 +449,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,151 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,45 +712,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -793,8 +748,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,18 +812,18 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,112 +833,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1848,13 +1842,13 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>

--- a/crm接口文档/客户来访管理/客户来访条件查询.xlsx
+++ b/crm接口文档/客户来访管理/客户来访条件查询.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>URL</t>
   </si>
@@ -196,6 +196,9 @@
   <si>
     <t>客户来访内容</t>
   </si>
+  <si>
+    <t>cusEvaluationStr</t>
+  </si>
 </sst>
 </file>
 
@@ -272,6 +275,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -280,7 +359,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,8 +380,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,113 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -449,25 +452,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,157 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,56 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -779,6 +732,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -792,6 +784,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,7 +1384,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1842,7 +1845,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>

--- a/crm接口文档/客户来访管理/客户来访条件查询.xlsx
+++ b/crm接口文档/客户来访管理/客户来访条件查询.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>URL</t>
   </si>
@@ -199,16 +199,31 @@
   <si>
     <t>cusEvaluationStr</t>
   </si>
+  <si>
+    <t>cusVisitStartTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>客户来访开始时间</t>
+  </si>
+  <si>
+    <t>cusVisitEndTime</t>
+  </si>
+  <si>
+    <t>客户来访结束时间</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -275,6 +290,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -283,6 +349,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -290,134 +433,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -452,19 +467,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,163 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +717,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -731,21 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -763,30 +802,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -803,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,10 +1396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+      <selection activeCell="A24" sqref="$A24:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1840,7 +1855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:9">
+    <row r="23" ht="15.75" spans="1:9">
       <c r="A23" s="25" t="s">
         <v>48</v>
       </c>
@@ -1857,8 +1872,50 @@
         <v>50</v>
       </c>
     </row>
+    <row r="24" ht="15.75" spans="1:9">
+      <c r="A24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:9">
+      <c r="A25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1903,6 +1960,10 @@
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户来访管理/客户来访条件查询.xlsx
+++ b/crm接口文档/客户来访管理/客户来访条件查询.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>URL</t>
   </si>
@@ -200,6 +200,9 @@
     <t>cusEvaluationStr</t>
   </si>
   <si>
+    <t>客户评价-字符串（显示值）</t>
+  </si>
+  <si>
     <t>cusVisitStartTime</t>
   </si>
   <si>
@@ -220,8 +223,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -290,10 +293,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +324,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -314,43 +341,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,9 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,32 +423,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,14 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -467,6 +470,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,6 +494,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,73 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,12 +614,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -635,19 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +720,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +740,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,15 +760,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,133 +833,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,10 +1399,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD25"/>
+      <selection activeCell="F23" sqref="F23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1866,7 +1869,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -1877,15 +1880,15 @@
         <v>48</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="22"/>
@@ -1898,15 +1901,15 @@
         <v>48</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="22"/>
@@ -1914,8 +1917,25 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" ht="15" spans="1:9">
+      <c r="A26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1964,6 +1984,8 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
